--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>17.0745505567422</v>
+        <v>16.84959230524469</v>
       </c>
       <c r="G2" t="n">
-        <v>11.40124621923967</v>
+        <v>10.86638617334403</v>
       </c>
       <c r="H2" t="n">
-        <v>22.6732762733915</v>
+        <v>22.65669746419275</v>
       </c>
       <c r="I2" t="n">
-        <v>3.042599429886831</v>
+        <v>3.060790629246692</v>
       </c>
       <c r="J2" t="n">
-        <v>2.456600489701211</v>
+        <v>2.480074798719637</v>
       </c>
       <c r="K2" t="n">
-        <v>3.602073247989066</v>
+        <v>3.620296377693331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1954419571993818</v>
+        <v>0.1964090420388994</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1499018620070814</v>
+        <v>0.1499153355450842</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2390300212150175</v>
+        <v>0.2399696151155021</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3785105599005122</v>
+        <v>0.3766953591769412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001010331236767548</v>
+        <v>0.0008407385803360073</v>
       </c>
       <c r="H3" t="n">
-        <v>0.930525138271607</v>
+        <v>0.9337652129996566</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3411365389085227</v>
+        <v>0.3398147628031963</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0009243326760826969</v>
+        <v>0.0007468723855353755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8430411582746247</v>
+        <v>0.8467826436719372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3844007052853106</v>
+        <v>0.3825742556151226</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001010282194581084</v>
+        <v>0.0008453675722439665</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9466076464289124</v>
+        <v>0.949460049797041</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>17.45306111664271</v>
+        <v>17.22628766442163</v>
       </c>
       <c r="G4" t="n">
-        <v>11.40225655047644</v>
+        <v>10.86722691192437</v>
       </c>
       <c r="H4" t="n">
-        <v>23.60380141166311</v>
+        <v>23.5904626771924</v>
       </c>
       <c r="I4" t="n">
-        <v>3.383735968795354</v>
+        <v>3.400605392049888</v>
       </c>
       <c r="J4" t="n">
-        <v>2.457524822377294</v>
+        <v>2.480821671105172</v>
       </c>
       <c r="K4" t="n">
-        <v>4.445114406263691</v>
+        <v>4.467079021365269</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5798426624846925</v>
+        <v>0.578983297654022</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1509121442016625</v>
+        <v>0.1507607031173282</v>
       </c>
       <c r="N4" t="n">
-        <v>1.18563766764393</v>
+        <v>1.189429664912543</v>
       </c>
     </row>
   </sheetData>
